--- a/MainTop/22.08.2025 Таня Озон/Поставка по городам/1 Воронеж.xlsx
+++ b/MainTop/22.08.2025 Таня Озон/Поставка по городам/1 Воронеж.xlsx
@@ -613,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -837,7 +837,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
